--- a/model/Outputs/8. Fixed RE/With PV/Output Files/40/Output_4_29.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/40/Output_4_29.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500737</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500737</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177835</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177835</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1570864948.432647</v>
+        <v>59583988.52783272</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +667,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C2" t="n">
-        <v>449.4745782429939</v>
+        <v>448.0862339500159</v>
       </c>
       <c r="D2" t="n">
         <v>410.3391557398498</v>
@@ -682,7 +682,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H2" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>105.228266425598</v>
       </c>
       <c r="R4" t="n">
-        <v>208.1413738827905</v>
+        <v>208.1413738827904</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T5" t="n">
         <v>560.964918411981</v>
@@ -998,10 +998,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H6" t="n">
-        <v>300.2841796816783</v>
+        <v>301.8178796392513</v>
       </c>
       <c r="I6" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F8" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150336</v>
       </c>
       <c r="G8" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H8" t="n">
         <v>347.8590406130752</v>
@@ -1238,7 +1238,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I9" t="n">
-        <v>107.3959878205679</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S9" t="n">
         <v>408.192915058951</v>
@@ -1344,7 +1344,7 @@
         <v>105.228266425598</v>
       </c>
       <c r="R10" t="n">
-        <v>208.1413738827905</v>
+        <v>208.1413738827904</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>480.6109686625962</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C11" t="n">
         <v>449.4745782429939</v>
@@ -1435,7 +1435,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V11" t="n">
-        <v>629.8510241668239</v>
+        <v>628.4626798738458</v>
       </c>
       <c r="W11" t="n">
         <v>638.3734759809475</v>
@@ -1502,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S12" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T12" t="n">
         <v>392.6911708778912</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S15" t="n">
         <v>408.192915058951</v>
@@ -1754,7 +1754,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W15" t="n">
-        <v>432.3731429098285</v>
+        <v>430.8394429522557</v>
       </c>
       <c r="X15" t="n">
         <v>419.8627394453875</v>
@@ -1864,7 +1864,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G17" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H17" t="n">
         <v>347.8590406130752</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T17" t="n">
         <v>560.964918411981</v>
@@ -2101,7 +2101,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G20" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
         <v>347.8590406130752</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T20" t="n">
         <v>560.964918411981</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2499,43 +2499,43 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G26" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H26" t="n">
         <v>347.8590406130752</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T26" t="n">
         <v>560.964918411981</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H29" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T29" t="n">
         <v>560.964918411981</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S30" t="n">
         <v>408.192915058951</v>
@@ -2939,7 +2939,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W30" t="n">
-        <v>432.3731429098285</v>
+        <v>430.8394429522557</v>
       </c>
       <c r="X30" t="n">
         <v>419.8627394453875</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T32" t="n">
         <v>560.964918411981</v>
@@ -3094,7 +3094,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V32" t="n">
-        <v>628.4626798738458</v>
+        <v>629.8510241668239</v>
       </c>
       <c r="W32" t="n">
         <v>638.3734759809475</v>
@@ -3210,43 +3210,43 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H35" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T35" t="n">
         <v>560.964918411981</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T41" t="n">
         <v>560.964918411981</v>
@@ -3805,7 +3805,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V41" t="n">
-        <v>628.4626798738458</v>
+        <v>629.8510241668239</v>
       </c>
       <c r="W41" t="n">
         <v>638.3734759809475</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T44" t="n">
         <v>560.964918411981</v>
@@ -4042,7 +4042,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V44" t="n">
-        <v>628.4626798738458</v>
+        <v>629.8510241668239</v>
       </c>
       <c r="W44" t="n">
         <v>638.3734759809475</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4315,19 +4315,19 @@
         <v>2578.759347546128</v>
       </c>
       <c r="C2" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D2" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E2" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F2" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G2" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H2" t="n">
         <v>140.96</v>
@@ -4336,25 +4336,25 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J2" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K2" t="n">
-        <v>1841.010275303557</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L2" t="n">
-        <v>2758.60299862014</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M2" t="n">
-        <v>3301.358424176563</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N2" t="n">
-        <v>3866.401488049235</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O2" t="n">
-        <v>4776.556370989979</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P2" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q2" t="n">
         <v>6931.116362236997</v>
@@ -4497,22 +4497,22 @@
         <v>440.0999956178874</v>
       </c>
       <c r="K4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="L4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="M4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="Q4" t="n">
         <v>351.2038120028187</v>
@@ -4530,7 +4530,7 @@
         <v>140.96</v>
       </c>
       <c r="V4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="W4" t="n">
         <v>290.6133856211738</v>
@@ -4549,22 +4549,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C5" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D5" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E5" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F5" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G5" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H5" t="n">
         <v>140.96</v>
@@ -4576,7 +4576,7 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K5" t="n">
-        <v>2124.71495243113</v>
+        <v>1936.671378010443</v>
       </c>
       <c r="L5" t="n">
         <v>3681.051378010443</v>
@@ -4600,25 +4600,25 @@
         <v>7048</v>
       </c>
       <c r="S5" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T5" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U5" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V5" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W5" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X5" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y5" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="6">
@@ -4646,7 +4646,7 @@
         <v>554.3073408685043</v>
       </c>
       <c r="H6" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I6" t="n">
         <v>140.96</v>
@@ -4713,34 +4713,34 @@
         <v>140.96</v>
       </c>
       <c r="D7" t="n">
-        <v>140.96</v>
+        <v>166.2524130292384</v>
       </c>
       <c r="E7" t="n">
-        <v>140.96</v>
+        <v>166.2524130292384</v>
       </c>
       <c r="F7" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="G7" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="H7" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="I7" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="J7" t="n">
-        <v>290.4466099967136</v>
+        <v>440.0999956178874</v>
       </c>
       <c r="K7" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="L7" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M7" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N7" t="n">
         <v>457.4949902104935</v>
@@ -4798,7 +4798,7 @@
         <v>1301.812859071671</v>
       </c>
       <c r="F8" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G8" t="n">
         <v>492.3327682960356</v>
@@ -4810,10 +4810,10 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J8" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K8" t="n">
-        <v>1936.671378010443</v>
+        <v>2550.716641651425</v>
       </c>
       <c r="L8" t="n">
         <v>3681.051378010443</v>
@@ -4865,25 +4865,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2285.562842359567</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C9" t="n">
-        <v>1920.815456050962</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D9" t="n">
-        <v>1569.363247063383</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E9" t="n">
-        <v>1223.229815526098</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F9" t="n">
-        <v>880.1629040736968</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G9" t="n">
-        <v>554.3073408685043</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H9" t="n">
-        <v>249.4407957783515</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I9" t="n">
         <v>140.96</v>
@@ -4913,28 +4913,28 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R9" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S9" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T9" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U9" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V9" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W9" t="n">
-        <v>3501.533235145273</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X9" t="n">
-        <v>3077.429457927709</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y9" t="n">
-        <v>2674.003808668988</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="10">
@@ -4944,49 +4944,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="C10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="D10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="E10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="F10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="G10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="H10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="I10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="J10" t="n">
-        <v>373.1514491892473</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K10" t="n">
-        <v>390.5464437818534</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L10" t="n">
-        <v>390.5464437818534</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M10" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N10" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="O10" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="P10" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="Q10" t="n">
         <v>351.2038120028187</v>
@@ -4995,25 +4995,25 @@
         <v>140.96</v>
       </c>
       <c r="S10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="T10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="U10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="V10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="W10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="X10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="Y10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="11">
@@ -5050,13 +5050,13 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K11" t="n">
-        <v>1415.008586083262</v>
+        <v>1936.671378010443</v>
       </c>
       <c r="L11" t="n">
-        <v>2595.354589746543</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M11" t="n">
-        <v>3077.533789260046</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N11" t="n">
         <v>4728.273641396618</v>
@@ -5083,16 +5083,16 @@
         <v>5461.408922542916</v>
       </c>
       <c r="V11" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W11" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X11" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y11" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="12">
@@ -5150,7 +5150,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R12" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S12" t="n">
         <v>5159.222422432123</v>
@@ -5287,19 +5287,19 @@
         <v>1101.367131735718</v>
       </c>
       <c r="K14" t="n">
-        <v>1841.010275303557</v>
+        <v>2550.716641651425</v>
       </c>
       <c r="L14" t="n">
-        <v>2819.17922466306</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M14" t="n">
-        <v>3301.358424176563</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N14" t="n">
-        <v>3866.401488049235</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O14" t="n">
-        <v>4776.556370989979</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P14" t="n">
         <v>6474.295852434775</v>
@@ -5387,19 +5387,19 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R15" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S15" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T15" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U15" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V15" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W15" t="n">
         <v>3503.082427021609</v>
@@ -5497,19 +5497,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C17" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D17" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E17" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F17" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G17" t="n">
         <v>492.3327682960356</v>
@@ -5518,28 +5518,28 @@
         <v>140.96</v>
       </c>
       <c r="I17" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J17" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K17" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L17" t="n">
-        <v>2332.601309399844</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M17" t="n">
-        <v>2814.780508913348</v>
+        <v>3788.860546968407</v>
       </c>
       <c r="N17" t="n">
-        <v>4118.58008885974</v>
+        <v>4353.903610841079</v>
       </c>
       <c r="O17" t="n">
-        <v>5028.734971800483</v>
+        <v>5264.058493781823</v>
       </c>
       <c r="P17" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q17" t="n">
         <v>6931.116362236997</v>
@@ -5548,25 +5548,25 @@
         <v>7048</v>
       </c>
       <c r="S17" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T17" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U17" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V17" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W17" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X17" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y17" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="18">
@@ -5734,19 +5734,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E20" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F20" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G20" t="n">
         <v>492.3327682960356</v>
@@ -5764,16 +5764,16 @@
         <v>1415.008586083262</v>
       </c>
       <c r="L20" t="n">
-        <v>2332.601309399844</v>
+        <v>2819.17922466306</v>
       </c>
       <c r="M20" t="n">
-        <v>3864.448844008177</v>
+        <v>3301.358424176563</v>
       </c>
       <c r="N20" t="n">
-        <v>4429.491907880849</v>
+        <v>3866.401488049235</v>
       </c>
       <c r="O20" t="n">
-        <v>5339.646790821593</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P20" t="n">
         <v>6474.295852434775</v>
@@ -5785,25 +5785,25 @@
         <v>7048</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="21">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H22" t="n">
         <v>140.96</v>
@@ -5949,19 +5949,19 @@
         <v>307.8416045893196</v>
       </c>
       <c r="U22" t="n">
-        <v>155.5035375626275</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V22" t="n">
-        <v>155.5035375626275</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="23">
@@ -5992,28 +5992,28 @@
         <v>140.96</v>
       </c>
       <c r="I23" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J23" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K23" t="n">
-        <v>1841.010275303557</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L23" t="n">
-        <v>2758.60299862014</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M23" t="n">
-        <v>4163.230577523946</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N23" t="n">
-        <v>4728.273641396618</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O23" t="n">
-        <v>5638.428524337362</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P23" t="n">
-        <v>6474.295852434775</v>
+        <v>5912.12964013179</v>
       </c>
       <c r="Q23" t="n">
         <v>6931.116362236997</v>
@@ -6129,22 +6129,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H25" t="n">
         <v>140.96</v>
@@ -6183,22 +6183,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="26">
@@ -6208,19 +6208,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C26" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D26" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E26" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F26" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G26" t="n">
         <v>492.3327682960356</v>
@@ -6244,13 +6244,13 @@
         <v>3240.782198133642</v>
       </c>
       <c r="N26" t="n">
-        <v>4728.273641396618</v>
+        <v>3805.825262006314</v>
       </c>
       <c r="O26" t="n">
-        <v>5638.428524337362</v>
+        <v>4715.980144947059</v>
       </c>
       <c r="P26" t="n">
-        <v>6474.295852434775</v>
+        <v>6413.719626391855</v>
       </c>
       <c r="Q26" t="n">
         <v>6931.116362236997</v>
@@ -6259,25 +6259,25 @@
         <v>7048</v>
       </c>
       <c r="S26" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T26" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U26" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V26" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W26" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X26" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y26" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="27">
@@ -6366,22 +6366,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H28" t="n">
         <v>140.96</v>
@@ -6426,16 +6426,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="29">
@@ -6445,37 +6445,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C29" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D29" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E29" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F29" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G29" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H29" t="n">
         <v>140.96</v>
       </c>
       <c r="I29" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J29" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K29" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L29" t="n">
-        <v>2332.601309399844</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M29" t="n">
         <v>3553.537024987068</v>
@@ -6496,25 +6496,25 @@
         <v>7048</v>
       </c>
       <c r="S29" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T29" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U29" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V29" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W29" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X29" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y29" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="30">
@@ -6572,19 +6572,19 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R30" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S30" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T30" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U30" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V30" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W30" t="n">
         <v>3503.082427021609</v>
@@ -6706,25 +6706,25 @@
         <v>140.96</v>
       </c>
       <c r="J32" t="n">
-        <v>1025.778834695947</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K32" t="n">
-        <v>1765.421978263786</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L32" t="n">
-        <v>2683.01470158037</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M32" t="n">
-        <v>3165.193901093872</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N32" t="n">
-        <v>3866.401488049235</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O32" t="n">
-        <v>4776.556370989979</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P32" t="n">
-        <v>6474.295852434775</v>
+        <v>5912.12964013179</v>
       </c>
       <c r="Q32" t="n">
         <v>6931.116362236997</v>
@@ -6733,13 +6733,13 @@
         <v>7048</v>
       </c>
       <c r="S32" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T32" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U32" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V32" t="n">
         <v>4826.598134791557</v>
@@ -6840,22 +6840,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H34" t="n">
         <v>140.96</v>
@@ -6894,22 +6894,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="35">
@@ -6919,22 +6919,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C35" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D35" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E35" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F35" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G35" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H35" t="n">
         <v>140.96</v>
@@ -6943,22 +6943,22 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J35" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K35" t="n">
-        <v>1841.010275303557</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L35" t="n">
-        <v>2758.60299862014</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M35" t="n">
-        <v>3240.782198133642</v>
+        <v>3864.448844008177</v>
       </c>
       <c r="N35" t="n">
-        <v>4728.273641396618</v>
+        <v>4429.491907880849</v>
       </c>
       <c r="O35" t="n">
-        <v>5638.428524337362</v>
+        <v>5339.646790821593</v>
       </c>
       <c r="P35" t="n">
         <v>6474.295852434775</v>
@@ -6970,25 +6970,25 @@
         <v>7048</v>
       </c>
       <c r="S35" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T35" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U35" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V35" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W35" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y35" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="36">
@@ -7077,22 +7077,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H37" t="n">
         <v>140.96</v>
@@ -7137,16 +7137,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="38">
@@ -7180,25 +7180,25 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J38" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K38" t="n">
-        <v>1841.010275303557</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L38" t="n">
-        <v>2758.60299862014</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M38" t="n">
-        <v>4163.230577523946</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N38" t="n">
-        <v>4728.273641396618</v>
+        <v>3379.82357278602</v>
       </c>
       <c r="O38" t="n">
-        <v>5638.428524337362</v>
+        <v>4289.978455726764</v>
       </c>
       <c r="P38" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q38" t="n">
         <v>6931.116362236997</v>
@@ -7314,22 +7314,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H40" t="n">
         <v>140.96</v>
@@ -7377,13 +7377,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="W40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="41">
@@ -7417,22 +7417,22 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J41" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K41" t="n">
-        <v>1841.010275303557</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L41" t="n">
-        <v>2758.60299862014</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M41" t="n">
-        <v>3240.782198133642</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N41" t="n">
-        <v>3805.825262006314</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O41" t="n">
-        <v>5550.205262006314</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P41" t="n">
         <v>6474.295852434775</v>
@@ -7444,13 +7444,13 @@
         <v>7048</v>
       </c>
       <c r="S41" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T41" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U41" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V41" t="n">
         <v>4826.598134791557</v>
@@ -7551,22 +7551,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H43" t="n">
         <v>140.96</v>
@@ -7611,16 +7611,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="44">
@@ -7681,13 +7681,13 @@
         <v>7048</v>
       </c>
       <c r="S44" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T44" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U44" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V44" t="n">
         <v>4826.598134791557</v>
@@ -7788,22 +7788,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H46" t="n">
         <v>140.96</v>
@@ -7851,13 +7851,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="W46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
   </sheetData>
@@ -7984,16 +7984,16 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J2" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>746.2187031047679</v>
       </c>
       <c r="M2" t="n">
-        <v>61.18810711406104</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -8002,10 +8002,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R2" t="n">
         <v>294.54111633436</v>
@@ -8224,10 +8224,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>716.8751175230994</v>
+        <v>526.9321130577587</v>
       </c>
       <c r="L5" t="n">
-        <v>645.1956588512421</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8458,13 +8458,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K8" t="n">
-        <v>526.9321130577587</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L8" t="n">
-        <v>835.1386633165826</v>
+        <v>214.8909222650855</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8698,16 +8698,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>526.9321130577587</v>
       </c>
       <c r="L11" t="n">
-        <v>265.4073538855534</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8935,10 +8935,10 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L14" t="n">
-        <v>61.18810711406081</v>
+        <v>214.8909222650855</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -9178,19 +9178,19 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N17" t="n">
-        <v>746.2187031047674</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>378.1515460156952</v>
       </c>
       <c r="Q17" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>294.54111633436</v>
@@ -9412,10 +9412,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>491.4928437002175</v>
       </c>
       <c r="M20" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>301.7997308240085</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9640,10 +9640,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J23" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>931.7660397881849</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9661,10 +9661,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>567.8446588919048</v>
       </c>
       <c r="R23" t="n">
         <v>294.54111633436</v>
@@ -9892,16 +9892,16 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>931.766039788185</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>61.18810711406093</v>
       </c>
       <c r="R26" t="n">
         <v>294.54111633436</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>746.2187031047675</v>
+        <v>822.5705182964547</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>44.29520053209296</v>
       </c>
       <c r="J32" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>137.5399223057481</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>870.5779326741233</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>567.8446588919048</v>
       </c>
       <c r="R32" t="n">
         <v>294.54111633436</v>
@@ -10591,7 +10591,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J35" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10600,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N35" t="n">
-        <v>931.766039788185</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>301.7997308240085</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J38" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>931.7660397881849</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10846,10 +10846,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>746.218703104767</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R38" t="n">
         <v>294.54111633436</v>
@@ -11065,13 +11065,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J41" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>89.1144063949971</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.388344292978104</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23390,10 +23390,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23627,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.533699957572821</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H22" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I22" t="n">
         <v>97.40414414470841</v>
@@ -24189,13 +24189,13 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V22" t="n">
         <v>199.1703102162162</v>
       </c>
       <c r="W22" t="n">
-        <v>211.9747076517084</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X22" t="n">
         <v>247.4436454301076</v>
@@ -24387,7 +24387,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H25" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I25" t="n">
         <v>97.40414414470841</v>
@@ -24423,7 +24423,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T25" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U25" t="n">
         <v>150.8146863564251</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24624,7 +24624,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H28" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I28" t="n">
         <v>97.40414414470841</v>
@@ -24666,7 +24666,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V28" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W28" t="n">
         <v>226.3728098387097</v>
@@ -24703,7 +24703,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24812,7 +24812,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1.533699957572821</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1.388344292978104</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H34" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I34" t="n">
         <v>97.40414414470841</v>
@@ -25134,7 +25134,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T34" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U34" t="n">
         <v>150.8146863564251</v>
@@ -25177,7 +25177,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25335,7 +25335,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H37" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I37" t="n">
         <v>97.40414414470841</v>
@@ -25377,7 +25377,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V37" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W37" t="n">
         <v>226.3728098387097</v>
@@ -25572,7 +25572,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H40" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I40" t="n">
         <v>97.40414414470841</v>
@@ -25617,7 +25617,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W40" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X40" t="n">
         <v>247.4436454301076</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>1.388344292978104</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H43" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I43" t="n">
         <v>97.40414414470841</v>
@@ -25851,7 +25851,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V43" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W43" t="n">
         <v>226.3728098387097</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>1.388344292978104</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26046,7 +26046,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H46" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I46" t="n">
         <v>97.40414414470841</v>
@@ -26091,7 +26091,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W46" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X46" t="n">
         <v>247.4436454301076</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15954.38442270377</v>
+        <v>1316006.940470103</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31731.20170604743</v>
+        <v>2606868.406811011</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47508.01898939107</v>
+        <v>3897729.873151923</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65464.68190845996</v>
+        <v>5053973.894141732</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83421.34482752881</v>
+        <v>6210217.915131542</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>101378.0077465977</v>
+        <v>7366461.936121344</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119334.6706656666</v>
+        <v>8522705.957111144</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>137291.3335847354</v>
+        <v>9678949.978100944</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>155247.9965038043</v>
+        <v>10835193.99909074</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>173204.6594228731</v>
+        <v>11991438.02008054</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>191161.322341942</v>
+        <v>13147682.04107034</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>209117.9852610109</v>
+        <v>14303926.06206015</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>227074.6481800799</v>
+        <v>15460170.08304997</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>245031.311099149</v>
+        <v>16616414.10403979</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>262987.9740182182</v>
+        <v>17772658.12502962</v>
       </c>
     </row>
   </sheetData>
@@ -26319,34 +26319,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>913048.3542411316</v>
+        <v>913048.3542411309</v>
       </c>
       <c r="C2" t="n">
-        <v>913048.3542411312</v>
+        <v>913048.3542411315</v>
       </c>
       <c r="D2" t="n">
-        <v>913048.3542411311</v>
+        <v>913048.3542411315</v>
       </c>
       <c r="E2" t="n">
+        <v>817831.1367976689</v>
+      </c>
+      <c r="F2" t="n">
         <v>817831.136797669</v>
-      </c>
-      <c r="F2" t="n">
-        <v>817831.1367976691</v>
       </c>
       <c r="G2" t="n">
         <v>817831.136797669</v>
       </c>
       <c r="H2" t="n">
-        <v>817831.1367976686</v>
+        <v>817831.1367976689</v>
       </c>
       <c r="I2" t="n">
-        <v>817831.1367976686</v>
+        <v>817831.1367976693</v>
       </c>
       <c r="J2" t="n">
-        <v>817831.1367976688</v>
+        <v>817831.1367976689</v>
       </c>
       <c r="K2" t="n">
-        <v>817831.1367976686</v>
+        <v>817831.1367976691</v>
       </c>
       <c r="L2" t="n">
         <v>817831.1367976691</v>
@@ -26358,10 +26358,10 @@
         <v>817831.136797669</v>
       </c>
       <c r="O2" t="n">
-        <v>817831.136797669</v>
+        <v>817831.1367976685</v>
       </c>
       <c r="P2" t="n">
-        <v>817831.1367976688</v>
+        <v>817831.1367976686</v>
       </c>
     </row>
     <row r="3">
@@ -26432,19 +26432,19 @@
         <v>101044.2291618175</v>
       </c>
       <c r="E4" t="n">
+        <v>26356.19966309946</v>
+      </c>
+      <c r="F4" t="n">
         <v>26356.19966309947</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>26356.19966309946</v>
       </c>
-      <c r="G4" t="n">
-        <v>26356.19966309947</v>
-      </c>
       <c r="H4" t="n">
-        <v>26356.19966309947</v>
+        <v>26356.19966309946</v>
       </c>
       <c r="I4" t="n">
-        <v>26356.19966309947</v>
+        <v>26356.19966309946</v>
       </c>
       <c r="J4" t="n">
         <v>26356.19966309947</v>
@@ -26459,7 +26459,7 @@
         <v>26356.19966309947</v>
       </c>
       <c r="N4" t="n">
-        <v>26356.19966309947</v>
+        <v>26356.19966309946</v>
       </c>
       <c r="O4" t="n">
         <v>26356.19966309947</v>
@@ -26527,16 +26527,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1405906.1866451</v>
+        <v>-1405906.186645101</v>
       </c>
       <c r="C6" t="n">
-        <v>639094.7644093807</v>
+        <v>639094.764409381</v>
       </c>
       <c r="D6" t="n">
-        <v>639397.1250793136</v>
+        <v>639397.125079314</v>
       </c>
       <c r="E6" t="n">
-        <v>652495.5371345696</v>
+        <v>652495.5371345694</v>
       </c>
       <c r="F6" t="n">
         <v>652495.5371345696</v>
@@ -26545,16 +26545,16 @@
         <v>652495.5371345696</v>
       </c>
       <c r="H6" t="n">
-        <v>652495.5371345691</v>
+        <v>652495.5371345694</v>
       </c>
       <c r="I6" t="n">
-        <v>652495.5371345691</v>
+        <v>652495.5371345698</v>
       </c>
       <c r="J6" t="n">
-        <v>32271.53713456928</v>
+        <v>32271.53713456943</v>
       </c>
       <c r="K6" t="n">
-        <v>652495.5371345691</v>
+        <v>652495.5371345696</v>
       </c>
       <c r="L6" t="n">
         <v>652495.5371345696</v>
@@ -26566,10 +26566,10 @@
         <v>652495.5371345696</v>
       </c>
       <c r="O6" t="n">
-        <v>652495.5371345695</v>
+        <v>652495.5371345691</v>
       </c>
       <c r="P6" t="n">
-        <v>652495.5371345694</v>
+        <v>652495.5371345691</v>
       </c>
     </row>
   </sheetData>
@@ -27511,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27726,10 +27726,10 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V4" t="n">
-        <v>350.3353461971999</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W4" t="n">
-        <v>226.3728098387097</v>
+        <v>377.5378458196934</v>
       </c>
       <c r="X4" t="n">
         <v>247.4436454301076</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27796,7 +27796,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27842,10 +27842,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.533699957573049</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27909,13 +27909,13 @@
         <v>272.7252466480447</v>
       </c>
       <c r="D7" t="n">
-        <v>285.5362180555555</v>
+        <v>311.0841100042811</v>
       </c>
       <c r="E7" t="n">
         <v>280.9809048369565</v>
       </c>
       <c r="F7" t="n">
-        <v>274.3828559677419</v>
+        <v>400</v>
       </c>
       <c r="G7" t="n">
         <v>242.4092826775956</v>
@@ -27939,7 +27939,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N7" t="n">
-        <v>319.1859637116848</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O7" t="n">
         <v>268.0582198167198</v>
@@ -27994,10 +27994,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="G8" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -28082,7 +28082,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.533699957573035</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28109,7 +28109,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -28173,10 +28173,10 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M10" t="n">
-        <v>175.2724221683563</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N10" t="n">
-        <v>168.0209277307011</v>
+        <v>319.1859637116847</v>
       </c>
       <c r="O10" t="n">
         <v>268.0582198167198</v>
@@ -28191,7 +28191,7 @@
         <v>400</v>
       </c>
       <c r="S10" t="n">
-        <v>400</v>
+        <v>316.45975839138</v>
       </c>
       <c r="T10" t="n">
         <v>198.7676812603561</v>
@@ -34828,16 +34828,16 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J2" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
         <v>747.114286432161</v>
       </c>
       <c r="L2" t="n">
-        <v>926.861336683417</v>
+        <v>1673.080039788185</v>
       </c>
       <c r="M2" t="n">
-        <v>548.2378035923467</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N2" t="n">
         <v>570.7505695683558</v>
@@ -34846,10 +34846,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P2" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q2" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R2" t="n">
         <v>118.0642805686905</v>
@@ -35022,10 +35022,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>151.1650359809837</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -35068,10 +35068,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K5" t="n">
-        <v>1463.98940395526</v>
+        <v>1274.04639948992</v>
       </c>
       <c r="L5" t="n">
-        <v>1572.05699553466</v>
+        <v>1762</v>
       </c>
       <c r="M5" t="n">
         <v>487.0496964782857</v>
@@ -35205,13 +35205,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>25.54789194872562</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>125.6171440322581</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -35235,7 +35235,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35302,13 +35302,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J8" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K8" t="n">
-        <v>1274.04639948992</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L8" t="n">
-        <v>1762</v>
+        <v>1141.752258948503</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
@@ -35469,10 +35469,10 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>67.62479437236374</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>151.1650359809836</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35487,7 +35487,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>83.54024160861997</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -35542,16 +35542,16 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
-        <v>747.114286432161</v>
+        <v>1274.04639948992</v>
       </c>
       <c r="L11" t="n">
-        <v>1192.268690568971</v>
+        <v>1762</v>
       </c>
       <c r="M11" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N11" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O11" t="n">
         <v>919.3483666068121</v>
@@ -35779,10 +35779,10 @@
         <v>893.7563986827749</v>
       </c>
       <c r="K14" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L14" t="n">
-        <v>988.049443797478</v>
+        <v>1141.752258948503</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
@@ -35794,7 +35794,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P14" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q14" t="n">
         <v>461.4348583860824</v>
@@ -36010,31 +36010,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K17" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L17" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M17" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N17" t="n">
-        <v>1316.969272673123</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O17" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P17" t="n">
-        <v>844.3104324216301</v>
+        <v>1222.461978437325</v>
       </c>
       <c r="Q17" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R17" t="n">
         <v>118.0642805686905</v>
@@ -36256,10 +36256,10 @@
         <v>747.114286432161</v>
       </c>
       <c r="L20" t="n">
-        <v>926.861336683417</v>
+        <v>1418.354180383635</v>
       </c>
       <c r="M20" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N20" t="n">
         <v>570.7505695683558</v>
@@ -36268,7 +36268,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P20" t="n">
-        <v>1146.110163245639</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q20" t="n">
         <v>461.4348583860824</v>
@@ -36484,19 +36484,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L23" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M23" t="n">
-        <v>1418.815736266471</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N23" t="n">
         <v>570.7505695683558</v>
@@ -36505,10 +36505,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q23" t="n">
-        <v>461.4348583860824</v>
+        <v>1029.279517277987</v>
       </c>
       <c r="R23" t="n">
         <v>118.0642805686905</v>
@@ -36736,16 +36736,16 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N26" t="n">
-        <v>1502.516609356541</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O26" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P26" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q26" t="n">
-        <v>461.4348583860824</v>
+        <v>522.6229655001433</v>
       </c>
       <c r="R26" t="n">
         <v>118.0642805686905</v>
@@ -36958,19 +36958,19 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L29" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M29" t="n">
-        <v>1233.268399583053</v>
+        <v>1309.62021477474</v>
       </c>
       <c r="N29" t="n">
         <v>570.7505695683558</v>
@@ -37198,10 +37198,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L32" t="n">
         <v>926.8613366834174</v>
@@ -37210,7 +37210,7 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N32" t="n">
-        <v>708.2904918741039</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O32" t="n">
         <v>919.3483666068121</v>
@@ -37219,7 +37219,7 @@
         <v>1714.888365095753</v>
       </c>
       <c r="Q32" t="n">
-        <v>461.4348583860824</v>
+        <v>1029.279517277987</v>
       </c>
       <c r="R32" t="n">
         <v>118.0642805686905</v>
@@ -37435,7 +37435,7 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J35" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
         <v>747.114286432161</v>
@@ -37444,16 +37444,16 @@
         <v>926.861336683417</v>
       </c>
       <c r="M35" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N35" t="n">
-        <v>1502.516609356541</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O35" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P35" t="n">
-        <v>844.3104324216301</v>
+        <v>1146.110163245639</v>
       </c>
       <c r="Q35" t="n">
         <v>461.4348583860824</v>
@@ -37672,7 +37672,7 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J38" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
         <v>747.114286432161</v>
@@ -37681,7 +37681,7 @@
         <v>926.861336683417</v>
       </c>
       <c r="M38" t="n">
-        <v>1418.815736266471</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N38" t="n">
         <v>570.7505695683558</v>
@@ -37690,10 +37690,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
-        <v>844.3104324216301</v>
+        <v>1590.529135526397</v>
       </c>
       <c r="Q38" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R38" t="n">
         <v>118.0642805686905</v>
@@ -37909,13 +37909,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J41" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L41" t="n">
-        <v>926.861336683417</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M41" t="n">
         <v>487.0496964782857</v>
@@ -37924,10 +37924,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O41" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P41" t="n">
-        <v>933.4248388166272</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q41" t="n">
         <v>461.4348583860824</v>
